--- a/mailfare/mailFee.xlsx
+++ b/mailfare/mailFee.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="110">
   <si>
     <t>目的国家</t>
   </si>
@@ -212,21 +212,24 @@
     <t>8-16</t>
   </si>
   <si>
+    <t>JF-USPS-US-3</t>
+  </si>
+  <si>
+    <t>L&lt;=54&amp;&amp;W&lt;=38&amp;&amp;H&lt;=25</t>
+  </si>
+  <si>
+    <t>9-15</t>
+  </si>
+  <si>
+    <t>DB-USPS-US-1</t>
+  </si>
+  <si>
     <t>XM-USPS-US-1</t>
   </si>
   <si>
     <t>9-16</t>
   </si>
   <si>
-    <t>JF-USPS-US-3</t>
-  </si>
-  <si>
-    <t>L&lt;=54&amp;&amp;W&lt;=38&amp;&amp;H&lt;=25</t>
-  </si>
-  <si>
-    <t>9-15</t>
-  </si>
-  <si>
     <t>HP-EMS-US-1</t>
   </si>
   <si>
@@ -315,6 +318,35 @@
   </si>
   <si>
     <t>ZHMY-EUB-M</t>
+  </si>
+  <si>
+    <t>cnfans</t>
+  </si>
+  <si>
+    <t>Length+width+height&lt;=90cm, and the longest edge&lt;=60cm</t>
+  </si>
+  <si>
+    <t>hippobuy</t>
+  </si>
+  <si>
+    <t>美国小包</t>
+  </si>
+  <si>
+    <t>不接收任何带电包裹
+禁运物品：药品、粉末、液体、纯电池、配套电池、危险品、烟酒、现金及有价证券、食品等；</t>
+  </si>
+  <si>
+    <t>10-15days</t>
+  </si>
+  <si>
+    <t>SDH</t>
+  </si>
+  <si>
+    <t>不接收任何带电包裹
+禁运物品：药品、粉末、液体、纯电池、配套电池、危险品、烟酒、现金及有价证券、侵权产品、仿牌、食品等；</t>
+  </si>
+  <si>
+    <t>3-12days</t>
   </si>
 </sst>
 </file>
@@ -660,7 +692,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR44"/>
+  <dimension ref="A1:BB54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -677,7 +709,7 @@
     <col customWidth="1" max="13" min="13" width="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44">
+    <row r="1" spans="1:54">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -750,8 +782,18 @@
       <c r="AP1" s="2" t="n"/>
       <c r="AQ1" s="2" t="n"/>
       <c r="AR1" s="2" t="n"/>
-    </row>
-    <row r="2" spans="1:44">
+      <c r="AS1" s="2" t="n"/>
+      <c r="AT1" s="2" t="n"/>
+      <c r="AU1" s="2" t="n"/>
+      <c r="AV1" s="2" t="n"/>
+      <c r="AW1" s="2" t="n"/>
+      <c r="AX1" s="2" t="n"/>
+      <c r="AY1" s="2" t="n"/>
+      <c r="AZ1" s="2" t="n"/>
+      <c r="BA1" s="2" t="n"/>
+      <c r="BB1" s="2" t="n"/>
+    </row>
+    <row r="2" spans="1:54">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -795,7 +837,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:44">
+    <row r="3" spans="1:54">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -839,7 +881,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:44">
+    <row r="4" spans="1:54">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -883,7 +925,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:44">
+    <row r="5" spans="1:54">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -927,7 +969,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:44">
+    <row r="6" spans="1:54">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -971,7 +1013,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:44">
+    <row r="7" spans="1:54">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -1013,7 +1055,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:44">
+    <row r="8" spans="1:54">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -1057,7 +1099,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:44">
+    <row r="9" spans="1:54">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
@@ -1099,7 +1141,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:44">
+    <row r="10" spans="1:54">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
@@ -1143,7 +1185,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:44">
+    <row r="11" spans="1:54">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
@@ -1187,7 +1229,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:44">
+    <row r="12" spans="1:54">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -1231,7 +1273,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:44">
+    <row r="13" spans="1:54">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -1273,7 +1315,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:44">
+    <row r="14" spans="1:54">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -1317,7 +1359,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:44">
+    <row r="15" spans="1:54">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -1361,7 +1403,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:44">
+    <row r="16" spans="1:54">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
@@ -1405,7 +1447,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:44">
+    <row r="17" spans="1:54">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
@@ -1449,7 +1491,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:44">
+    <row r="18" spans="1:54">
       <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
@@ -1463,7 +1505,7 @@
         <v>59</v>
       </c>
       <c r="E18" s="3" t="n">
-        <v>132.45</v>
+        <v>152.37</v>
       </c>
       <c r="F18" s="3" t="n"/>
       <c r="G18" s="3" t="n"/>
@@ -1478,7 +1520,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:44">
+    <row r="19" spans="1:54">
       <c r="A19" s="3" t="s">
         <v>14</v>
       </c>
@@ -1492,7 +1534,7 @@
         <v>62</v>
       </c>
       <c r="E19" s="3" t="n">
-        <v>150.12</v>
+        <v>160.12</v>
       </c>
       <c r="F19" s="3" t="n"/>
       <c r="G19" s="3" t="n"/>
@@ -1507,7 +1549,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:44">
+    <row r="20" spans="1:54">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
@@ -1521,7 +1563,7 @@
         <v>65</v>
       </c>
       <c r="E20" s="3" t="n">
-        <v>163.39</v>
+        <v>166.69</v>
       </c>
       <c r="F20" s="3" t="n"/>
       <c r="G20" s="3" t="n"/>
@@ -1530,13 +1572,13 @@
       <c r="J20" s="3" t="n"/>
       <c r="K20" s="3" t="n"/>
       <c r="L20" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:44">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:54">
       <c r="A21" s="3" t="s">
         <v>14</v>
       </c>
@@ -1547,10 +1589,10 @@
         <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E21" s="3" t="n">
-        <v>200.81</v>
+        <v>171.28</v>
       </c>
       <c r="F21" s="3" t="n"/>
       <c r="G21" s="3" t="n"/>
@@ -1559,13 +1601,13 @@
       <c r="J21" s="3" t="n"/>
       <c r="K21" s="3" t="n"/>
       <c r="L21" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:44">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:54">
       <c r="A22" s="3" t="s">
         <v>14</v>
       </c>
@@ -1576,10 +1618,10 @@
         <v>58</v>
       </c>
       <c r="D22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E22" s="3" t="n">
-        <v>308.69</v>
+        <v>173.39</v>
       </c>
       <c r="F22" s="3" t="n"/>
       <c r="G22" s="3" t="n"/>
@@ -1588,13 +1630,13 @@
       <c r="J22" s="3" t="n"/>
       <c r="K22" s="3" t="n"/>
       <c r="L22" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:44">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:54">
       <c r="A23" s="3" t="s">
         <v>14</v>
       </c>
@@ -1605,10 +1647,10 @@
         <v>58</v>
       </c>
       <c r="D23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E23" s="3" t="n">
-        <v>376.58</v>
+        <v>318.69</v>
       </c>
       <c r="F23" s="3" t="n"/>
       <c r="G23" s="3" t="n"/>
@@ -1617,77 +1659,62 @@
       <c r="J23" s="3" t="n"/>
       <c r="K23" s="3" t="n"/>
       <c r="L23" t="s">
+        <v>72</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:54">
+      <c r="A24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" t="s">
         <v>74</v>
       </c>
-      <c r="N23" s="3" t="s">
+      <c r="E24" s="3" t="n">
+        <v>386.58</v>
+      </c>
+      <c r="F24" s="3" t="n"/>
+      <c r="G24" s="3" t="n"/>
+      <c r="H24" s="3" t="n"/>
+      <c r="I24" s="3" t="n"/>
+      <c r="J24" s="3" t="n"/>
+      <c r="K24" s="3" t="n"/>
+      <c r="L24" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="24" spans="1:44">
-      <c r="A24" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="3" t="n">
-        <v>600</v>
-      </c>
-      <c r="C24" s="3" t="s">
+      <c r="N24" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D24" t="s">
+    </row>
+    <row r="25" spans="1:54">
+      <c r="A25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" t="s">
         <v>46</v>
       </c>
-      <c r="E24" s="3" t="n">
+      <c r="E25" s="3" t="n">
         <v>154.2</v>
       </c>
-      <c r="F24" s="3" t="n">
+      <c r="F25" s="3" t="n">
         <v>99.2</v>
       </c>
-      <c r="G24" s="3" t="n">
+      <c r="G25" s="3" t="n">
         <v>30</v>
-      </c>
-      <c r="H24" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="I24" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="J24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3" t="n">
-        <v>5000</v>
-      </c>
-      <c r="L24" t="s">
-        <v>47</v>
-      </c>
-      <c r="M24" t="s">
-        <v>48</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:44">
-      <c r="A25" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="3" t="n">
-        <v>600</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" s="3" t="n">
-        <v>139.1</v>
-      </c>
-      <c r="F25" s="3" t="n">
-        <v>88.09999999999999</v>
-      </c>
-      <c r="G25" s="3" t="n">
-        <v>26</v>
       </c>
       <c r="H25" s="3" t="n">
         <v>15</v>
@@ -1702,7 +1729,7 @@
         <v>5000</v>
       </c>
       <c r="L25" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="M25" t="s">
         <v>48</v>
@@ -1711,7 +1738,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:44">
+    <row r="26" spans="1:54">
       <c r="A26" s="3" t="s">
         <v>14</v>
       </c>
@@ -1719,19 +1746,19 @@
         <v>600</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E26" s="3" t="n">
-        <v>125.1</v>
+        <v>139.1</v>
       </c>
       <c r="F26" s="3" t="n">
-        <v>78.09999999999999</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="G26" s="3" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H26" s="3" t="n">
         <v>15</v>
@@ -1743,81 +1770,81 @@
         <v>0</v>
       </c>
       <c r="K26" s="3" t="n">
-        <v>20000</v>
-      </c>
-      <c r="L26" t="s"/>
+        <v>5000</v>
+      </c>
+      <c r="L26" t="s">
+        <v>78</v>
+      </c>
       <c r="M26" t="s">
         <v>48</v>
       </c>
       <c r="N26" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:54">
+      <c r="A27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="3" t="n">
+        <v>125.1</v>
+      </c>
+      <c r="F27" s="3" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="G27" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="H27" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="I27" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="J27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3" t="n">
+        <v>20000</v>
+      </c>
+      <c r="L27" t="s"/>
+      <c r="M27" t="s">
+        <v>48</v>
+      </c>
+      <c r="N27" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:44">
-      <c r="A27" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="3" t="n">
-        <v>600</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D27" t="s">
+    <row r="28" spans="1:54">
+      <c r="A28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="3" t="n">
+      <c r="E28" s="3" t="n">
         <v>268.9</v>
       </c>
-      <c r="F27" s="3" t="n">
+      <c r="F28" s="3" t="n">
         <v>186</v>
       </c>
-      <c r="G27" s="3" t="n">
+      <c r="G28" s="3" t="n">
         <v>57.9</v>
-      </c>
-      <c r="H27" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="I27" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="J27" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3" t="n">
-        <v>30000</v>
-      </c>
-      <c r="L27" t="s">
-        <v>54</v>
-      </c>
-      <c r="M27" t="s">
-        <v>55</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:44">
-      <c r="A28" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="3" t="n">
-        <v>600</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D28" t="s">
-        <v>31</v>
-      </c>
-      <c r="E28" s="3" t="n">
-        <v>239.3</v>
-      </c>
-      <c r="F28" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="G28" s="3" t="n">
-        <v>14.3</v>
       </c>
       <c r="H28" s="3" t="n">
         <v>15</v>
@@ -1835,169 +1862,183 @@
         <v>54</v>
       </c>
       <c r="M28" t="s">
+        <v>55</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:54">
+      <c r="A29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="3" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="F29" s="3" t="n">
+        <v>200</v>
+      </c>
+      <c r="G29" s="3" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="H29" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="I29" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="J29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L29" t="s">
+        <v>54</v>
+      </c>
+      <c r="M29" t="s">
         <v>32</v>
       </c>
-      <c r="N28" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:44">
-      <c r="A29" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="3" t="n">
-        <v>600</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" t="s">
+    <row r="30" spans="1:54">
+      <c r="A30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="3" t="n">
+      <c r="E30" s="3" t="n">
         <v>121.2</v>
       </c>
-      <c r="F29" s="3" t="n">
+      <c r="F30" s="3" t="n">
         <v>35.2</v>
       </c>
-      <c r="G29" s="3" t="n">
+      <c r="G30" s="3" t="n">
         <v>1.22</v>
       </c>
-      <c r="H29" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="I29" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="J29" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="n">
+      <c r="H30" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="I30" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="J30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" s="3" t="n">
         <v>2000</v>
       </c>
-      <c r="L29" t="s">
+      <c r="L30" t="s">
         <v>35</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M30" t="s">
         <v>36</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="N30" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:44">
-      <c r="A30" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="3" t="n">
-        <v>600</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D30" t="s">
+    <row r="31" spans="1:54">
+      <c r="A31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" t="s">
         <v>41</v>
       </c>
-      <c r="E30" s="3" t="n">
+      <c r="E31" s="3" t="n">
         <v>236</v>
       </c>
-      <c r="F30" s="3" t="n">
+      <c r="F31" s="3" t="n">
         <v>211</v>
       </c>
-      <c r="G30" s="3" t="n">
+      <c r="G31" s="3" t="n">
         <v>127</v>
       </c>
-      <c r="H30" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="I30" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="J30" s="3" t="n">
-        <v>500</v>
-      </c>
-      <c r="K30" s="3" t="n">
-        <v>30000</v>
-      </c>
-      <c r="L30" t="s">
-        <v>42</v>
-      </c>
-      <c r="M30" t="s">
-        <v>43</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:44">
-      <c r="A31" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" s="3" t="n">
-        <v>600</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D31" t="s">
-        <v>79</v>
-      </c>
-      <c r="E31" s="3" t="n">
-        <v>421</v>
-      </c>
-      <c r="F31" s="3" t="n">
-        <v>398</v>
-      </c>
-      <c r="G31" s="3" t="n">
-        <v>80</v>
-      </c>
       <c r="H31" s="3" t="n">
         <v>15</v>
       </c>
       <c r="I31" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J31" s="3" t="n">
         <v>500</v>
       </c>
       <c r="K31" s="3" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L31" t="s">
+        <v>42</v>
+      </c>
+      <c r="M31" t="s">
+        <v>43</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:54">
+      <c r="A32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" s="3" t="n">
+        <v>421</v>
+      </c>
+      <c r="F32" s="3" t="n">
+        <v>398</v>
+      </c>
+      <c r="G32" s="3" t="n">
+        <v>80</v>
+      </c>
+      <c r="H32" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="I32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3" t="n">
+        <v>500</v>
+      </c>
+      <c r="K32" s="3" t="n">
         <v>20000</v>
       </c>
-      <c r="N31" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="1:44">
-      <c r="A32" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" s="3" t="n">
-        <v>600</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="N32" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E32" s="3" t="n">
-        <v>379.18</v>
-      </c>
-      <c r="F32" s="3" t="n"/>
-      <c r="G32" s="3" t="n"/>
-      <c r="H32" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="I32" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3" t="n"/>
-      <c r="K32" s="3" t="n"/>
-      <c r="N32" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:44">
+    </row>
+    <row r="33" spans="1:54">
       <c r="A33" s="3" t="s">
         <v>14</v>
       </c>
@@ -2005,113 +2046,105 @@
         <v>600</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D33" t="s">
         <v>82</v>
       </c>
       <c r="E33" s="3" t="n">
+        <v>379.18</v>
+      </c>
+      <c r="F33" s="3" t="n"/>
+      <c r="G33" s="3" t="n"/>
+      <c r="H33" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="I33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3" t="n"/>
+      <c r="K33" s="3" t="n"/>
+      <c r="N33" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:54">
+      <c r="A34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" s="3" t="n">
         <v>335</v>
       </c>
-      <c r="F33" s="3" t="n">
+      <c r="F34" s="3" t="n">
         <v>312</v>
       </c>
-      <c r="G33" s="3" t="n">
+      <c r="G34" s="3" t="n">
         <v>49</v>
       </c>
-      <c r="H33" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="I33" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3" t="n">
+      <c r="H34" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="I34" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" s="3" t="n">
         <v>500</v>
       </c>
-      <c r="K33" s="3" t="n">
+      <c r="K34" s="3" t="n">
         <v>20000</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="1:44">
-      <c r="A34" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" s="3" t="n">
-        <v>600</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="N34" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E34" s="3" t="n">
+    </row>
+    <row r="35" spans="1:54">
+      <c r="A35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35" s="3" t="n">
         <v>308</v>
       </c>
-      <c r="F34" s="3" t="n">
+      <c r="F35" s="3" t="n">
         <v>230</v>
       </c>
-      <c r="G34" s="3" t="n">
+      <c r="G35" s="3" t="n">
         <v>60</v>
       </c>
-      <c r="H34" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="I34" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" s="3" t="n">
+      <c r="H35" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="I35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3" t="n">
         <v>30000</v>
       </c>
-      <c r="N34" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="35" spans="1:44">
-      <c r="A35" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35" s="3" t="n">
-        <v>600</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="N35" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E35" s="3" t="n">
-        <v>209.7</v>
-      </c>
-      <c r="F35" s="3" t="n">
-        <v>127</v>
-      </c>
-      <c r="G35" s="3" t="n">
-        <v>44.7</v>
-      </c>
-      <c r="H35" s="3" t="n">
-        <v>30</v>
-      </c>
-      <c r="I35" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3" t="n">
-        <v>50</v>
-      </c>
-      <c r="K35" s="3" t="n">
-        <v>5000</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="36" spans="1:44">
+    </row>
+    <row r="36" spans="1:54">
       <c r="A36" s="3" t="s">
         <v>14</v>
       </c>
@@ -2119,19 +2152,19 @@
         <v>600</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D36" t="s">
         <v>87</v>
       </c>
       <c r="E36" s="3" t="n">
-        <v>207</v>
+        <v>209.7</v>
       </c>
       <c r="F36" s="3" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G36" s="3" t="n">
-        <v>44</v>
+        <v>44.7</v>
       </c>
       <c r="H36" s="3" t="n">
         <v>30</v>
@@ -2146,10 +2179,10 @@
         <v>5000</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37" spans="1:44">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:54">
       <c r="A37" s="3" t="s">
         <v>14</v>
       </c>
@@ -2157,113 +2190,113 @@
         <v>600</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D37" t="s">
         <v>88</v>
       </c>
       <c r="E37" s="3" t="n">
+        <v>207</v>
+      </c>
+      <c r="F37" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="G37" s="3" t="n">
+        <v>44</v>
+      </c>
+      <c r="H37" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="I37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="K37" s="3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:54">
+      <c r="A38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" t="s">
+        <v>89</v>
+      </c>
+      <c r="E38" s="3" t="n">
         <v>170.7</v>
       </c>
-      <c r="F37" s="3" t="n">
+      <c r="F38" s="3" t="n">
         <v>83.09999999999999</v>
       </c>
-      <c r="G37" s="3" t="n">
+      <c r="G38" s="3" t="n">
         <v>29.6</v>
       </c>
-      <c r="H37" s="3" t="n">
+      <c r="H38" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="I37" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" s="3" t="n">
+      <c r="I38" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" s="3" t="n">
         <v>30000</v>
       </c>
-      <c r="N37" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="38" spans="1:44">
-      <c r="A38" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B38" s="3" t="n">
-        <v>600</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="N38" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E38" s="3" t="n">
+    </row>
+    <row r="39" spans="1:54">
+      <c r="A39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E39" s="3" t="n">
         <v>161.5</v>
       </c>
-      <c r="F38" s="3" t="n">
+      <c r="F39" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="G38" s="3" t="n">
+      <c r="G39" s="3" t="n">
         <v>33.5</v>
       </c>
-      <c r="H38" s="3" t="n">
+      <c r="H39" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="I38" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" s="3" t="n">
+      <c r="I39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" s="3" t="n">
         <v>5000</v>
       </c>
-      <c r="N38" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="39" spans="1:44">
-      <c r="A39" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B39" s="3" t="n">
-        <v>600</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="N39" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E39" s="3" t="n">
-        <v>148</v>
-      </c>
-      <c r="F39" s="3" t="n">
-        <v>72</v>
-      </c>
-      <c r="G39" s="3" t="n">
-        <v>17</v>
-      </c>
-      <c r="H39" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="I39" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K39" s="3" t="n">
-        <v>2000</v>
-      </c>
-      <c r="N39" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="1:44">
+    </row>
+    <row r="40" spans="1:54">
       <c r="A40" s="3" t="s">
         <v>14</v>
       </c>
@@ -2271,37 +2304,37 @@
         <v>600</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D40" t="s">
         <v>93</v>
       </c>
       <c r="E40" s="3" t="n">
-        <v>146.5</v>
+        <v>148</v>
       </c>
       <c r="F40" s="3" t="n">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G40" s="3" t="n">
-        <v>28.5</v>
+        <v>17</v>
       </c>
       <c r="H40" s="3" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="I40" s="3" t="n">
         <v>0</v>
       </c>
       <c r="J40" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" s="3" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="41" spans="1:44">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:54">
       <c r="A41" s="3" t="s">
         <v>14</v>
       </c>
@@ -2309,19 +2342,19 @@
         <v>600</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D41" t="s">
         <v>94</v>
       </c>
       <c r="E41" s="3" t="n">
-        <v>143</v>
+        <v>146.5</v>
       </c>
       <c r="F41" s="3" t="n">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="G41" s="3" t="n">
-        <v>18</v>
+        <v>28.5</v>
       </c>
       <c r="H41" s="3" t="n">
         <v>30</v>
@@ -2330,36 +2363,36 @@
         <v>0</v>
       </c>
       <c r="J41" s="3" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3" t="n">
-        <v>30000</v>
+        <v>5000</v>
       </c>
       <c r="N41" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:54">
+      <c r="A42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="42" spans="1:44">
-      <c r="A42" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B42" s="3" t="n">
-        <v>600</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D42" t="s">
-        <v>96</v>
-      </c>
       <c r="E42" s="3" t="n">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="F42" s="3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G42" s="3" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H42" s="3" t="n">
         <v>30</v>
@@ -2374,21 +2407,21 @@
         <v>30000</v>
       </c>
       <c r="N42" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:54">
+      <c r="A43" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D43" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="43" spans="1:44">
-      <c r="A43" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B43" s="3" t="n">
-        <v>600</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D43" t="s">
-        <v>98</v>
       </c>
       <c r="E43" s="3" t="n">
         <v>131</v>
@@ -2406,16 +2439,16 @@
         <v>0</v>
       </c>
       <c r="J43" s="3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K43" s="3" t="n">
         <v>30000</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="44" spans="1:44">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:54">
       <c r="A44" s="3" t="s">
         <v>14</v>
       </c>
@@ -2423,7 +2456,7 @@
         <v>600</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D44" t="s">
         <v>99</v>
@@ -2432,25 +2465,439 @@
         <v>131</v>
       </c>
       <c r="F44" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="G44" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="H44" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="I44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3" t="n">
+        <v>30000</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:54">
+      <c r="A45" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45" t="s">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3" t="n">
+        <v>131</v>
+      </c>
+      <c r="F45" s="3" t="n">
         <v>63</v>
       </c>
-      <c r="G44" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="H44" s="3" t="n">
+      <c r="G45" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="H45" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="I44" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" s="3" t="n">
+      <c r="I45" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3" t="n">
         <v>2000</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>85</v>
+      <c r="N45" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:54">
+      <c r="A46" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D46" t="s">
+        <v>50</v>
+      </c>
+      <c r="E46" s="3" t="n">
+        <v>139.1</v>
+      </c>
+      <c r="F46" s="3" t="n">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="G46" s="3" t="n">
+        <v>26</v>
+      </c>
+      <c r="H46" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="I46" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="J46" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L46" t="s">
+        <v>47</v>
+      </c>
+      <c r="M46" t="s">
+        <v>48</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:54">
+      <c r="A47" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D47" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47" s="3" t="n">
+        <v>154.2</v>
+      </c>
+      <c r="F47" s="3" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="G47" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="H47" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="I47" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="J47" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L47" t="s">
+        <v>47</v>
+      </c>
+      <c r="M47" t="s">
+        <v>48</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:54">
+      <c r="A48" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D48" t="s">
+        <v>52</v>
+      </c>
+      <c r="E48" s="3" t="n">
+        <v>125.1</v>
+      </c>
+      <c r="F48" s="3" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="G48" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="H48" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="I48" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="J48" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3" t="n">
+        <v>20000</v>
+      </c>
+      <c r="L48" t="s"/>
+      <c r="M48" t="s">
+        <v>48</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:54">
+      <c r="A49" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D49" t="s">
+        <v>53</v>
+      </c>
+      <c r="E49" s="3" t="n">
+        <v>268.9</v>
+      </c>
+      <c r="F49" s="3" t="n">
+        <v>186</v>
+      </c>
+      <c r="G49" s="3" t="n">
+        <v>57.9</v>
+      </c>
+      <c r="H49" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="I49" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="J49" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L49" t="s">
+        <v>54</v>
+      </c>
+      <c r="M49" t="s">
+        <v>55</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:54">
+      <c r="A50" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D50" t="s">
+        <v>31</v>
+      </c>
+      <c r="E50" s="3" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="F50" s="3" t="n">
+        <v>200</v>
+      </c>
+      <c r="G50" s="3" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="H50" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="I50" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="J50" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" s="3" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L50" t="s">
+        <v>54</v>
+      </c>
+      <c r="M50" t="s">
+        <v>32</v>
+      </c>
+      <c r="N50" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:54">
+      <c r="A51" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D51" t="s">
+        <v>34</v>
+      </c>
+      <c r="E51" s="3" t="n">
+        <v>121.2</v>
+      </c>
+      <c r="F51" s="3" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="G51" s="3" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="H51" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="I51" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="J51" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L51" t="s">
+        <v>102</v>
+      </c>
+      <c r="M51" t="s">
+        <v>36</v>
+      </c>
+      <c r="N51" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:54">
+      <c r="A52" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D52" t="s">
+        <v>41</v>
+      </c>
+      <c r="E52" s="3" t="n">
+        <v>236</v>
+      </c>
+      <c r="F52" s="3" t="n">
+        <v>211</v>
+      </c>
+      <c r="G52" s="3" t="n">
+        <v>127</v>
+      </c>
+      <c r="H52" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="I52" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="J52" s="3" t="n">
+        <v>500</v>
+      </c>
+      <c r="K52" s="3" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L52" t="s">
+        <v>42</v>
+      </c>
+      <c r="M52" t="s">
+        <v>43</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:54">
+      <c r="A53" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D53" t="s">
+        <v>104</v>
+      </c>
+      <c r="E53" s="3" t="n">
+        <v>116.69</v>
+      </c>
+      <c r="F53" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" s="3" t="n"/>
+      <c r="H53" s="3" t="n"/>
+      <c r="I53" s="3" t="n"/>
+      <c r="J53" s="3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="K53" s="3" t="n">
+        <v>50000</v>
+      </c>
+      <c r="M53" t="s">
+        <v>105</v>
+      </c>
+      <c r="N53" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:54">
+      <c r="A54" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D54" t="s">
+        <v>107</v>
+      </c>
+      <c r="E54" s="3" t="n">
+        <v>230</v>
+      </c>
+      <c r="F54" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3" t="n"/>
+      <c r="H54" s="3" t="n"/>
+      <c r="I54" s="3" t="n"/>
+      <c r="J54" s="3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="K54" s="3" t="n">
+        <v>200000</v>
+      </c>
+      <c r="M54" t="s">
+        <v>108</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
